--- a/hardware/eagle/bbb-cc2520/rev_c/bbb-cc2520_bom.xlsx
+++ b/hardware/eagle/bbb-cc2520/rev_c/bbb-cc2520_bom.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neal\Google Drive\Work-Lab11\beaglebone-cc2520\hardware\eagle\bbb-cc2520\rev_b\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25306"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20480"/>
   </bookViews>
   <sheets>
     <sheet name="bbb-cc2520_b_bom" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="231">
   <si>
     <t>Qty</t>
   </si>
@@ -48,18 +48,12 @@
     <t>0402_CAP</t>
   </si>
   <si>
-    <t>L12</t>
-  </si>
-  <si>
     <t>587-1521-1-ND</t>
   </si>
   <si>
     <t>INDUCTOR0603</t>
   </si>
   <si>
-    <t>L1, L2</t>
-  </si>
-  <si>
     <t>490-1015-1-ND</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>CAPACITOR</t>
   </si>
   <si>
-    <t>C26</t>
-  </si>
-  <si>
     <t>0402 Capacitor</t>
   </si>
   <si>
@@ -135,9 +126,6 @@
     <t>C-EUC0402</t>
   </si>
   <si>
-    <t>C14, C15, C16, C17, C18, C19, C20, C21, C22</t>
-  </si>
-  <si>
     <t>490-1318-1-ND</t>
   </si>
   <si>
@@ -150,9 +138,6 @@
     <t>R0402</t>
   </si>
   <si>
-    <t>R12, R18, R19, R20, R21</t>
-  </si>
-  <si>
     <t>RESISTOR, American symbol</t>
   </si>
   <si>
@@ -165,9 +150,6 @@
     <t>0603_CAP</t>
   </si>
   <si>
-    <t>L13</t>
-  </si>
-  <si>
     <t>490-4025-1-ND</t>
   </si>
   <si>
@@ -180,9 +162,6 @@
     <t>0603-RES</t>
   </si>
   <si>
-    <t>R23</t>
-  </si>
-  <si>
     <t>Resistor</t>
   </si>
   <si>
@@ -192,9 +171,6 @@
     <t>12pF</t>
   </si>
   <si>
-    <t>C30, C31</t>
-  </si>
-  <si>
     <t>490-6197-1-ND</t>
   </si>
   <si>
@@ -222,15 +198,9 @@
     <t>1M 1%</t>
   </si>
   <si>
-    <t>R16, R17</t>
-  </si>
-  <si>
     <t>1k 1%</t>
   </si>
   <si>
-    <t>R4, R5</t>
-  </si>
-  <si>
     <t>P56.0KLCT-ND</t>
   </si>
   <si>
@@ -240,21 +210,12 @@
     <t>1nF</t>
   </si>
   <si>
-    <t>C11, C12, C13</t>
-  </si>
-  <si>
-    <t>C27, C32</t>
-  </si>
-  <si>
     <t>490-1303-1-ND</t>
   </si>
   <si>
     <t>1nH</t>
   </si>
   <si>
-    <t>L3, L4, L5, L6</t>
-  </si>
-  <si>
     <t>1pF</t>
   </si>
   <si>
@@ -270,15 +231,9 @@
     <t>C0603</t>
   </si>
   <si>
-    <t>C23, C24</t>
-  </si>
-  <si>
     <t>490-1550-1-ND</t>
   </si>
   <si>
-    <t>C29</t>
-  </si>
-  <si>
     <t>1276-1513-1-ND</t>
   </si>
   <si>
@@ -291,9 +246,6 @@
     <t>2.2uF</t>
   </si>
   <si>
-    <t>C25</t>
-  </si>
-  <si>
     <t>2.7pF</t>
   </si>
   <si>
@@ -318,9 +270,6 @@
     <t>27pF</t>
   </si>
   <si>
-    <t>C7, C8, C9, C10</t>
-  </si>
-  <si>
     <t>490-5869-1-ND</t>
   </si>
   <si>
@@ -339,9 +288,6 @@
     <t>330k 1%</t>
   </si>
   <si>
-    <t>R15</t>
-  </si>
-  <si>
     <t>3pF</t>
   </si>
   <si>
@@ -351,30 +297,18 @@
     <t>4.3k</t>
   </si>
   <si>
-    <t>R6</t>
-  </si>
-  <si>
     <t>4.75k</t>
   </si>
   <si>
-    <t>R7, R8, R9</t>
-  </si>
-  <si>
     <t>4.7uF</t>
   </si>
   <si>
-    <t>C28</t>
-  </si>
-  <si>
     <t>445-5947-1-ND</t>
   </si>
   <si>
     <t>47nF</t>
   </si>
   <si>
-    <t>C33</t>
-  </si>
-  <si>
     <t>445-1264-1-ND</t>
   </si>
   <si>
@@ -387,15 +321,9 @@
     <t>5.6k 5%</t>
   </si>
   <si>
-    <t>R10, R11</t>
-  </si>
-  <si>
     <t>56k 1%</t>
   </si>
   <si>
-    <t>R13, R14</t>
-  </si>
-  <si>
     <t>6.8pF</t>
   </si>
   <si>
@@ -483,9 +411,6 @@
     <t>Multiprotocol Bluetooth® 4.0 low energy/2.4 GHz RF SoC</t>
   </si>
   <si>
-    <t>1490-1032-1-ND</t>
-  </si>
-  <si>
     <t>NX2520SA</t>
   </si>
   <si>
@@ -612,9 +537,6 @@
     <t>ANT1, ANT2, ANT3</t>
   </si>
   <si>
-    <t>P9, P8</t>
-  </si>
-  <si>
     <t>2x23 Pin Header</t>
   </si>
   <si>
@@ -663,18 +585,12 @@
     <t>MAJOR LEAGUE</t>
   </si>
   <si>
-    <t>ORDERED</t>
-  </si>
-  <si>
     <t>490-6269-1-ND</t>
   </si>
   <si>
     <t>160-1831-1-ND</t>
   </si>
   <si>
-    <t>R1, R2, R3, R22</t>
-  </si>
-  <si>
     <t>RHM470CDCT-ND</t>
   </si>
   <si>
@@ -684,14 +600,125 @@
     <t>296-11993-1-ND</t>
   </si>
   <si>
-    <t>Note: replaced with 445-4854-1-ND due to backorder</t>
+    <t>15nH</t>
+  </si>
+  <si>
+    <t>P8, P9</t>
+  </si>
+  <si>
+    <t>470 ohm</t>
+  </si>
+  <si>
+    <t>1490-1031-1-ND</t>
+  </si>
+  <si>
+    <t>C7, C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10, C11, C12, C13</t>
+  </si>
+  <si>
+    <t>C14, C15, C16</t>
+  </si>
+  <si>
+    <t>C17, C18</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>C21, C22, C23, C24, C25, C26, C27, C28, C29</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>C31</t>
+  </si>
+  <si>
+    <t>C32, C33</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>JUMPER-PTH-2-NO</t>
+  </si>
+  <si>
+    <t>PTH-JUMPER-2-NO_NO_SILK</t>
+  </si>
+  <si>
+    <t>TEST_POINT_0.040IN</t>
+  </si>
+  <si>
+    <t>TESTPOINT_0.040IN</t>
+  </si>
+  <si>
+    <t>0.040in Test Point</t>
+  </si>
+  <si>
+    <t>5001K-ND</t>
+  </si>
+  <si>
+    <t>TP0, TP1, TP2</t>
+  </si>
+  <si>
+    <t>L1, L2, L3, L4</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>L12, L13</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R4</t>
+  </si>
+  <si>
+    <t>R5, R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8, R9, R10</t>
+  </si>
+  <si>
+    <t>R11, R12</t>
+  </si>
+  <si>
+    <t>R13, R14, R15, R16</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R18, R19</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R21, R22</t>
+  </si>
+  <si>
+    <t>3M9447-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -843,6 +870,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1025,7 +1074,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1140,8 +1189,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1184,16 +1242,80 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="104">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1222,11 +1344,73 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1293,7 +1477,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1328,7 +1512,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1505,7 +1689,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1513,1308 +1697,1345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J4" sqref="G4:J4"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="29.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="3" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="6" customFormat="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H1" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="K4" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>167</v>
+        <v>52</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>26</v>
+        <v>199</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>57</v>
+        <v>201</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="F23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" customFormat="1" ht="14">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" t="s">
+        <v>208</v>
+      </c>
+      <c r="G28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
         <v>4</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>2</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>1</v>
-      </c>
       <c r="B29" s="1" t="s">
-        <v>181</v>
+        <v>64</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="H29" s="3"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>9</v>
+        <v>217</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F33" s="4" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>3</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
         <v>3</v>
       </c>
-      <c r="B38" s="1">
-        <v>470</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F38" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>2</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="5" customFormat="1">
+      <c r="A43" s="5">
+        <v>2</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+      <c r="C45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
         <v>2</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>1</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>2</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
-        <v>1</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>2</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>1</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>2</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>1</v>
-      </c>
       <c r="B46" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>3</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="5" customFormat="1">
+      <c r="A47" s="5">
+        <v>1</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>1</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" customFormat="1" ht="14">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>211</v>
+      </c>
+      <c r="C49" t="s">
+        <v>211</v>
+      </c>
+      <c r="D49" t="s">
+        <v>212</v>
+      </c>
+      <c r="E49" t="s">
+        <v>215</v>
+      </c>
+      <c r="F49" t="s">
+        <v>213</v>
+      </c>
+      <c r="G49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>1</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="14">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G54" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
         <v>2</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>1</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>65</v>
+      <c r="B55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I59">
-    <sortCondition ref="E1"/>
+  <sortState ref="A2:K54">
+    <sortCondition ref="E2:E54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>